--- a/Sheets/public_fin_indiv.xlsx
+++ b/Sheets/public_fin_indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesmoore/Desktop/Harvey Nash Data Analysis/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE69A2E-C17B-6949-A5C1-D87E980A6100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B34A1-017A-9547-A688-BD5DF9CF2F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="500" windowWidth="27880" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A749" workbookViewId="0">
+      <selection activeCell="A782" sqref="A782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>24</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>28</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>28</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>28</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>29</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>29</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>29</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>30</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>31</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>31</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>31</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>31</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>32</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>32</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>32</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>32</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>33</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>33</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>33</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>33</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>33</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>34</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>34</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>34</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>34</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>34</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>35</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>35</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>35</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>35</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>35</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>36</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>36</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>36</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>36</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>37</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>37</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>37</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>38</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>38</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>38</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>38</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>38</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>39</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>39</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>39</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>39</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>40</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>40</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>40</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>40</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>40</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>41</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>41</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>41</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>41</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>42</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>42</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>42</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>42</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>42</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>43</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>43</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>43</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>43</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>43</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>44</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>45</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>45</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>46</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>47</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>47</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>47</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>47</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>47</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>48</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>48</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>48</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>48</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>48</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>49</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>49</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>49</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>49</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>49</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>50</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>50</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>50</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>50</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>50</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>51</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>51</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>51</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>51</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>51</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>52</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>52</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>52</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>52</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>52</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>53</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>53</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>53</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>53</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>53</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>54</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>54</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>55</v>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>55</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>55</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>55</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>55</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>56</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>56</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>56</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>56</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>56</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>57</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>57</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>57</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>57</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>57</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>58</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>58</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>58</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>58</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>58</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>59</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>59</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>59</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>59</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>59</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>60</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>60</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>60</v>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>60</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>60</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>61</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>61</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>61</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>61</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>61</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>62</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>62</v>
@@ -9294,7 +9294,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>62</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>62</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>62</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>63</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>63</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>63</v>
@@ -9486,7 +9486,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>63</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>63</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>64</v>
@@ -9582,7 +9582,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>64</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>64</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>64</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>64</v>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>65</v>
@@ -9736,7 +9736,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>65</v>
@@ -9762,7 +9762,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>65</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>65</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>65</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>66</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>66</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>66</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>66</v>
@@ -9986,7 +9986,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>66</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>67</v>
@@ -10050,7 +10050,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>67</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>67</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>67</v>
@@ -10146,7 +10146,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>67</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>68</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>68</v>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
         <v>68</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
         <v>68</v>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>68</v>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>69</v>
@@ -10370,7 +10370,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>69</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>69</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>69</v>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>69</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>70</v>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>70</v>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>70</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
         <v>70</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>70</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>71</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>72</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>72</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
         <v>72</v>
@@ -10818,7 +10818,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>73</v>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
         <v>73</v>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>73</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>73</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>73</v>
@@ -11010,7 +11010,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>74</v>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>74</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>74</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
         <v>74</v>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>74</v>
@@ -11164,7 +11164,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>75</v>
@@ -11196,7 +11196,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>75</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>75</v>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>75</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>75</v>
@@ -11324,7 +11324,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>76</v>
@@ -11356,7 +11356,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>76</v>
@@ -11388,7 +11388,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>76</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>76</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>76</v>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>77</v>
@@ -11516,7 +11516,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>77</v>
@@ -11548,7 +11548,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>77</v>
@@ -11580,7 +11580,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>77</v>
@@ -11612,7 +11612,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>77</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>78</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>78</v>
@@ -11702,7 +11702,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>79</v>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>79</v>
@@ -11766,7 +11766,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>79</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>79</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>79</v>
@@ -11862,7 +11862,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>80</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>80</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>80</v>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
         <v>80</v>
@@ -11990,7 +11990,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>80</v>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>81</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B342" t="s">
         <v>81</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>81</v>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>81</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>81</v>
@@ -12182,7 +12182,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>82</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>82</v>
@@ -12246,7 +12246,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
         <v>82</v>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
         <v>82</v>
@@ -12310,7 +12310,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
         <v>82</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
         <v>83</v>
@@ -12374,7 +12374,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
@@ -12406,7 +12406,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
@@ -12435,7 +12435,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>83</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B355" t="s">
         <v>83</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B356" t="s">
         <v>84</v>
@@ -12525,7 +12525,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B357" t="s">
         <v>84</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>84</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>84</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
         <v>84</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>85</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>85</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B363" t="s">
         <v>85</v>
@@ -12731,7 +12731,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
         <v>85</v>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
         <v>85</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
         <v>86</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B367" t="s">
         <v>86</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>86</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B369" t="s">
         <v>86</v>
@@ -12899,7 +12899,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
         <v>86</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>87</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B372" t="s">
         <v>87</v>
@@ -12983,7 +12983,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
         <v>87</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>87</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s">
         <v>87</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
         <v>88</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>88</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>88</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
         <v>88</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>88</v>
@@ -13221,7 +13221,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>89</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B382" t="s">
         <v>89</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>89</v>
@@ -13317,7 +13317,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>89</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B385" t="s">
         <v>89</v>
@@ -13381,7 +13381,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
         <v>90</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
         <v>90</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
         <v>90</v>
@@ -13477,7 +13477,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
         <v>90</v>
@@ -13509,7 +13509,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B390" t="s">
         <v>90</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
         <v>91</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
         <v>91</v>
@@ -13605,7 +13605,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>91</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>91</v>
@@ -13669,7 +13669,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B395" t="s">
         <v>91</v>
@@ -13701,7 +13701,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B396" t="s">
         <v>92</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>93</v>
@@ -13759,7 +13759,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B398" t="s">
         <v>93</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B399" t="s">
         <v>93</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>93</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>93</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B402" t="s">
         <v>94</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B403" t="s">
         <v>94</v>
@@ -13951,7 +13951,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
         <v>94</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B405" t="s">
         <v>94</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>94</v>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B407" t="s">
         <v>95</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B408" t="s">
         <v>95</v>
@@ -14111,7 +14111,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B409" t="s">
         <v>95</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B410" t="s">
         <v>95</v>
@@ -14175,7 +14175,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
         <v>95</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B412" t="s">
         <v>96</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B413" t="s">
         <v>96</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B414" t="s">
         <v>96</v>
@@ -14303,7 +14303,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B415" t="s">
         <v>96</v>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B416" t="s">
         <v>96</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B417" t="s">
         <v>97</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B418" t="s">
         <v>97</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B419" t="s">
         <v>97</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B420" t="s">
         <v>97</v>
@@ -14495,7 +14495,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B421" t="s">
         <v>97</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B422" t="s">
         <v>98</v>
@@ -14559,7 +14559,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>98</v>
@@ -14591,7 +14591,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>98</v>
@@ -14623,7 +14623,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>98</v>
@@ -14655,7 +14655,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B426" t="s">
         <v>98</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B427" t="s">
         <v>99</v>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>99</v>
@@ -14751,7 +14751,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B429" t="s">
         <v>99</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B430" t="s">
         <v>99</v>
@@ -14815,7 +14815,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B431" t="s">
         <v>99</v>
@@ -14847,7 +14847,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B432" t="s">
         <v>100</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B433" t="s">
         <v>100</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B434" t="s">
         <v>100</v>
@@ -14943,7 +14943,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B435" t="s">
         <v>100</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B436" t="s">
         <v>100</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B437" t="s">
         <v>101</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>101</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>101</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>101</v>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>101</v>
@@ -15167,7 +15167,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>102</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B443" t="s">
         <v>102</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B444" t="s">
         <v>102</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B445" t="s">
         <v>102</v>
@@ -15295,7 +15295,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B446" t="s">
         <v>102</v>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>103</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>103</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B449" t="s">
         <v>103</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B450" t="s">
         <v>103</v>
@@ -15455,7 +15455,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>103</v>
@@ -15487,7 +15487,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>104</v>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B453" t="s">
         <v>104</v>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>104</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>104</v>
@@ -15615,7 +15615,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B456" t="s">
         <v>104</v>
@@ -15647,7 +15647,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>105</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B458" t="s">
         <v>105</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B459" t="s">
         <v>105</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B460" t="s">
         <v>105</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B461" t="s">
         <v>105</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>106</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
@@ -15871,7 +15871,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>106</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B465" t="s">
         <v>106</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B466" t="s">
         <v>106</v>
@@ -15967,7 +15967,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B467" t="s">
         <v>107</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B468" t="s">
         <v>107</v>
@@ -16031,7 +16031,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B469" t="s">
         <v>107</v>
@@ -16063,7 +16063,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B470" t="s">
         <v>107</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>107</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B472" t="s">
         <v>108</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>108</v>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>108</v>
@@ -16223,7 +16223,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B475" t="s">
         <v>108</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B476" t="s">
         <v>108</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B477" t="s">
         <v>109</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B478" t="s">
         <v>110</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>110</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B480" t="s">
         <v>110</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B481" t="s">
         <v>110</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B482" t="s">
         <v>110</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B483" t="s">
         <v>111</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B484" t="s">
         <v>111</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>111</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>111</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B487" t="s">
         <v>111</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B488" t="s">
         <v>112</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>112</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>112</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B491" t="s">
         <v>112</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B492" t="s">
         <v>112</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B493" t="s">
         <v>113</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B494" t="s">
         <v>113</v>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B495" t="s">
         <v>113</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>113</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B497" t="s">
         <v>113</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B498" t="s">
         <v>114</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B499" t="s">
         <v>114</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B500" t="s">
         <v>114</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B501" t="s">
         <v>114</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B502" t="s">
         <v>114</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B503" t="s">
         <v>115</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B504" t="s">
         <v>115</v>
@@ -17183,7 +17183,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B505" t="s">
         <v>115</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B506" t="s">
         <v>115</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B507" t="s">
         <v>115</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B508" t="s">
         <v>116</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B509" t="s">
         <v>116</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B510" t="s">
         <v>116</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>116</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B512" t="s">
         <v>116</v>
@@ -17439,7 +17439,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B513" t="s">
         <v>117</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B514" t="s">
         <v>117</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B515" t="s">
         <v>117</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B516" t="s">
         <v>117</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B517" t="s">
         <v>117</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B518" t="s">
         <v>118</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>118</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B520" t="s">
         <v>118</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B521" t="s">
         <v>118</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B522" t="s">
         <v>118</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B523" t="s">
         <v>119</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B524" t="s">
         <v>119</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B525" t="s">
         <v>119</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B526" t="s">
         <v>119</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>119</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>120</v>
@@ -17948,7 +17948,7 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B529" t="s">
         <v>120</v>
@@ -17977,7 +17977,7 @@
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B530" t="s">
         <v>120</v>
@@ -18006,7 +18006,7 @@
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B531" t="s">
         <v>120</v>
@@ -18035,7 +18035,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B532" t="s">
         <v>120</v>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B533" t="s">
         <v>121</v>
@@ -18096,7 +18096,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>121</v>
@@ -18125,7 +18125,7 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B535" t="s">
         <v>121</v>
@@ -18154,7 +18154,7 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B536" t="s">
         <v>121</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>121</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>122</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B539" t="s">
         <v>122</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B540" t="s">
         <v>122</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B541" t="s">
         <v>122</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>122</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>123</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B544" t="s">
         <v>123</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B545" t="s">
         <v>123</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B546" t="s">
         <v>123</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B547" t="s">
         <v>123</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B548" t="s">
         <v>124</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B549" t="s">
         <v>124</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>124</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B551" t="s">
         <v>124</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B552" t="s">
         <v>124</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>125</v>
@@ -18721,7 +18721,7 @@
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>125</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>125</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B556" t="s">
         <v>125</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B557" t="s">
         <v>125</v>
@@ -18825,7 +18825,7 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B558" t="s">
         <v>126</v>
@@ -18851,7 +18851,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B559" t="s">
         <v>126</v>
@@ -18877,7 +18877,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B560" t="s">
         <v>126</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B561" t="s">
         <v>126</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B562" t="s">
         <v>126</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B563" t="s">
         <v>127</v>
@@ -18981,7 +18981,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B564" t="s">
         <v>127</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B565" t="s">
         <v>127</v>
@@ -19033,7 +19033,7 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>127</v>
@@ -19059,7 +19059,7 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s">
         <v>127</v>
@@ -19085,7 +19085,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B568" t="s">
         <v>128</v>
@@ -19117,7 +19117,7 @@
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B569" t="s">
         <v>128</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>128</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B571" t="s">
         <v>128</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B572" t="s">
         <v>128</v>
@@ -19245,7 +19245,7 @@
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B573" t="s">
         <v>129</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B574" t="s">
         <v>129</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>129</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>129</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B577" t="s">
         <v>129</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B578" t="s">
         <v>130</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B579" t="s">
         <v>130</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B580" t="s">
         <v>130</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B581" t="s">
         <v>130</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B582" t="s">
         <v>130</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B583" t="s">
         <v>131</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B584" t="s">
         <v>131</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B585" t="s">
         <v>131</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B586" t="s">
         <v>131</v>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B587" t="s">
         <v>131</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B588" t="s">
         <v>132</v>
@@ -19751,7 +19751,7 @@
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B589" t="s">
         <v>132</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B590" t="s">
         <v>132</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B591" t="s">
         <v>132</v>
@@ -19847,7 +19847,7 @@
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B592" t="s">
         <v>132</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B593" t="s">
         <v>133</v>
@@ -19911,7 +19911,7 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B594" t="s">
         <v>133</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B595" t="s">
         <v>133</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B596" t="s">
         <v>133</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B597" t="s">
         <v>133</v>
@@ -20039,7 +20039,7 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B598" t="s">
         <v>134</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B599" t="s">
         <v>134</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B600" t="s">
         <v>134</v>
@@ -20135,7 +20135,7 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B601" t="s">
         <v>134</v>
@@ -20167,7 +20167,7 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B602" t="s">
         <v>134</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B603" t="s">
         <v>135</v>
@@ -20231,7 +20231,7 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B604" t="s">
         <v>135</v>
@@ -20263,7 +20263,7 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B605" t="s">
         <v>135</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B606" t="s">
         <v>135</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>135</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B608" t="s">
         <v>136</v>
@@ -20391,7 +20391,7 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B609" t="s">
         <v>137</v>
@@ -20423,7 +20423,7 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B610" t="s">
         <v>137</v>
@@ -20455,7 +20455,7 @@
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B611" t="s">
         <v>137</v>
@@ -20487,7 +20487,7 @@
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B612" t="s">
         <v>137</v>
@@ -20519,7 +20519,7 @@
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B613" t="s">
         <v>137</v>
@@ -20551,7 +20551,7 @@
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B614" t="s">
         <v>138</v>
@@ -20583,7 +20583,7 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B615" t="s">
         <v>138</v>
@@ -20615,7 +20615,7 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B616" t="s">
         <v>138</v>
@@ -20647,7 +20647,7 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B617" t="s">
         <v>138</v>
@@ -20679,7 +20679,7 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B618" t="s">
         <v>138</v>
@@ -20711,7 +20711,7 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B619" t="s">
         <v>139</v>
@@ -20743,7 +20743,7 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B620" t="s">
         <v>139</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B621" t="s">
         <v>139</v>
@@ -20807,7 +20807,7 @@
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B622" t="s">
         <v>139</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B623" t="s">
         <v>139</v>
@@ -20871,7 +20871,7 @@
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B624" t="s">
         <v>140</v>
@@ -20903,7 +20903,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B625" t="s">
         <v>141</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B626" t="s">
         <v>141</v>
@@ -20967,7 +20967,7 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B627" t="s">
         <v>141</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B628" t="s">
         <v>141</v>
@@ -21031,7 +21031,7 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B629" t="s">
         <v>141</v>
@@ -21063,7 +21063,7 @@
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B630" t="s">
         <v>142</v>
@@ -21095,7 +21095,7 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B631" t="s">
         <v>142</v>
@@ -21127,7 +21127,7 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B632" t="s">
         <v>142</v>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B633" t="s">
         <v>142</v>
@@ -21191,7 +21191,7 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B634" t="s">
         <v>142</v>
@@ -21223,7 +21223,7 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B635" t="s">
         <v>143</v>
@@ -21255,7 +21255,7 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B636" t="s">
         <v>143</v>
@@ -21287,7 +21287,7 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B637" t="s">
         <v>143</v>
@@ -21319,7 +21319,7 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B638" t="s">
         <v>143</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B639" t="s">
         <v>143</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B640" t="s">
         <v>144</v>
@@ -21409,7 +21409,7 @@
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B641" t="s">
         <v>144</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B642" t="s">
         <v>144</v>
@@ -21461,7 +21461,7 @@
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B643" t="s">
         <v>144</v>
@@ -21487,7 +21487,7 @@
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B644" t="s">
         <v>144</v>
@@ -21513,7 +21513,7 @@
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B645" t="s">
         <v>145</v>
@@ -21545,7 +21545,7 @@
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B646" t="s">
         <v>145</v>
@@ -21577,7 +21577,7 @@
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B647" t="s">
         <v>145</v>
@@ -21609,7 +21609,7 @@
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B648" t="s">
         <v>145</v>
@@ -21641,7 +21641,7 @@
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B649" t="s">
         <v>145</v>
@@ -21673,7 +21673,7 @@
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B650" t="s">
         <v>146</v>
@@ -21705,7 +21705,7 @@
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B651" t="s">
         <v>146</v>
@@ -21737,7 +21737,7 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B652" t="s">
         <v>146</v>
@@ -21769,7 +21769,7 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B653" t="s">
         <v>146</v>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B654" t="s">
         <v>146</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B655" t="s">
         <v>147</v>
@@ -21865,7 +21865,7 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B656" t="s">
         <v>147</v>
@@ -21894,7 +21894,7 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B657" t="s">
         <v>148</v>
@@ -21926,7 +21926,7 @@
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B658" t="s">
         <v>148</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B659" t="s">
         <v>148</v>
@@ -21990,7 +21990,7 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B660" t="s">
         <v>148</v>
@@ -22022,7 +22022,7 @@
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B661" t="s">
         <v>148</v>
@@ -22054,7 +22054,7 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B662" t="s">
         <v>149</v>
@@ -22086,7 +22086,7 @@
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B663" t="s">
         <v>149</v>
@@ -22118,7 +22118,7 @@
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B664" t="s">
         <v>149</v>
@@ -22150,7 +22150,7 @@
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B665" t="s">
         <v>149</v>
@@ -22182,7 +22182,7 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B666" t="s">
         <v>149</v>
@@ -22214,7 +22214,7 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B667" t="s">
         <v>150</v>
@@ -22240,7 +22240,7 @@
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B668" t="s">
         <v>150</v>
@@ -22272,7 +22272,7 @@
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B669" t="s">
         <v>150</v>
@@ -22304,7 +22304,7 @@
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B670" t="s">
         <v>150</v>
@@ -22336,7 +22336,7 @@
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B671" t="s">
         <v>150</v>
@@ -22368,7 +22368,7 @@
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B672" t="s">
         <v>151</v>
@@ -22400,7 +22400,7 @@
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B673" t="s">
         <v>151</v>
@@ -22432,7 +22432,7 @@
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B674" t="s">
         <v>151</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B675" t="s">
         <v>151</v>
@@ -22496,7 +22496,7 @@
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B676" t="s">
         <v>151</v>
@@ -22528,7 +22528,7 @@
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B677" t="s">
         <v>152</v>
@@ -22554,7 +22554,7 @@
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B678" t="s">
         <v>152</v>
@@ -22580,7 +22580,7 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B679" t="s">
         <v>152</v>
@@ -22606,7 +22606,7 @@
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B680" t="s">
         <v>152</v>
@@ -22632,7 +22632,7 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B681" t="s">
         <v>152</v>
@@ -22658,7 +22658,7 @@
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B682" t="s">
         <v>153</v>
@@ -22690,7 +22690,7 @@
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B683" t="s">
         <v>153</v>
@@ -22722,7 +22722,7 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B684" t="s">
         <v>153</v>
@@ -22754,7 +22754,7 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B685" t="s">
         <v>153</v>
@@ -22786,7 +22786,7 @@
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B686" t="s">
         <v>153</v>
@@ -22818,7 +22818,7 @@
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B687" t="s">
         <v>154</v>
@@ -22850,7 +22850,7 @@
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>154</v>
@@ -22882,7 +22882,7 @@
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B689" t="s">
         <v>154</v>
@@ -22914,7 +22914,7 @@
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B690" t="s">
         <v>154</v>
@@ -22946,7 +22946,7 @@
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B691" t="s">
         <v>155</v>
@@ -22978,7 +22978,7 @@
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B692" t="s">
         <v>155</v>
@@ -23010,7 +23010,7 @@
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B693" t="s">
         <v>155</v>
@@ -23042,7 +23042,7 @@
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B694" t="s">
         <v>155</v>
@@ -23074,7 +23074,7 @@
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B695" t="s">
         <v>155</v>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B696" t="s">
         <v>156</v>
@@ -23138,7 +23138,7 @@
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B697" t="s">
         <v>157</v>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B698" t="s">
         <v>157</v>
@@ -23202,7 +23202,7 @@
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B699" t="s">
         <v>157</v>
@@ -23234,7 +23234,7 @@
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B700" t="s">
         <v>157</v>
@@ -23266,7 +23266,7 @@
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B701" t="s">
         <v>157</v>
@@ -23298,7 +23298,7 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B702" t="s">
         <v>158</v>
@@ -23330,7 +23330,7 @@
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B703" t="s">
         <v>158</v>
@@ -23362,7 +23362,7 @@
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B704" t="s">
         <v>158</v>
@@ -23394,7 +23394,7 @@
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B705" t="s">
         <v>158</v>
@@ -23426,7 +23426,7 @@
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B706" t="s">
         <v>158</v>
@@ -23458,7 +23458,7 @@
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B707" t="s">
         <v>159</v>
@@ -23490,7 +23490,7 @@
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B708" t="s">
         <v>159</v>
@@ -23522,7 +23522,7 @@
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B709" t="s">
         <v>159</v>
@@ -23554,7 +23554,7 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B710" t="s">
         <v>159</v>
@@ -23586,7 +23586,7 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B711" t="s">
         <v>159</v>
@@ -23618,7 +23618,7 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B712" t="s">
         <v>160</v>
@@ -23650,7 +23650,7 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B713" t="s">
         <v>160</v>
@@ -23682,7 +23682,7 @@
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B714" t="s">
         <v>160</v>
@@ -23714,7 +23714,7 @@
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B715" t="s">
         <v>160</v>
@@ -23746,7 +23746,7 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B716" t="s">
         <v>161</v>
@@ -23778,7 +23778,7 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B717" t="s">
         <v>161</v>
@@ -23810,7 +23810,7 @@
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B718" t="s">
         <v>161</v>
@@ -23842,7 +23842,7 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B719" t="s">
         <v>161</v>
@@ -23874,7 +23874,7 @@
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B720" t="s">
         <v>161</v>
@@ -23906,7 +23906,7 @@
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B721" t="s">
         <v>162</v>
@@ -23938,7 +23938,7 @@
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B722" t="s">
         <v>163</v>
@@ -23970,7 +23970,7 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B723" t="s">
         <v>163</v>
@@ -24002,7 +24002,7 @@
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B724" t="s">
         <v>163</v>
@@ -24034,7 +24034,7 @@
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B725" t="s">
         <v>163</v>
@@ -24066,7 +24066,7 @@
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B726" t="s">
         <v>163</v>
@@ -24098,7 +24098,7 @@
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B727" t="s">
         <v>164</v>
@@ -24130,7 +24130,7 @@
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B728" t="s">
         <v>164</v>
@@ -24162,7 +24162,7 @@
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B729" t="s">
         <v>164</v>
@@ -24194,7 +24194,7 @@
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B730" t="s">
         <v>164</v>
@@ -24226,7 +24226,7 @@
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B731" t="s">
         <v>164</v>
@@ -24258,7 +24258,7 @@
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B732" t="s">
         <v>165</v>
@@ -24290,7 +24290,7 @@
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B733" t="s">
         <v>165</v>
@@ -24322,7 +24322,7 @@
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B734" t="s">
         <v>165</v>
@@ -24354,7 +24354,7 @@
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B735" t="s">
         <v>165</v>
@@ -24386,7 +24386,7 @@
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B736" t="s">
         <v>165</v>
@@ -24418,7 +24418,7 @@
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B737" t="s">
         <v>166</v>
@@ -24450,7 +24450,7 @@
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B738" t="s">
         <v>166</v>
@@ -24482,7 +24482,7 @@
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B739" t="s">
         <v>166</v>
@@ -24514,7 +24514,7 @@
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B740" t="s">
         <v>166</v>
@@ -24546,7 +24546,7 @@
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B741" t="s">
         <v>166</v>
@@ -24578,7 +24578,7 @@
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B742" t="s">
         <v>167</v>
@@ -24610,7 +24610,7 @@
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B743" t="s">
         <v>167</v>
@@ -24642,7 +24642,7 @@
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B744" t="s">
         <v>167</v>
@@ -24674,7 +24674,7 @@
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B745" t="s">
         <v>167</v>
@@ -24706,7 +24706,7 @@
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B746" t="s">
         <v>167</v>
@@ -24738,7 +24738,7 @@
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B747" t="s">
         <v>168</v>
@@ -24767,7 +24767,7 @@
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B748" t="s">
         <v>168</v>
@@ -24799,7 +24799,7 @@
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B749" t="s">
         <v>168</v>
@@ -24831,7 +24831,7 @@
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B750" t="s">
         <v>168</v>
@@ -24863,7 +24863,7 @@
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B751" t="s">
         <v>168</v>
@@ -24895,7 +24895,7 @@
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B752" t="s">
         <v>169</v>
@@ -24927,7 +24927,7 @@
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B753" t="s">
         <v>169</v>
@@ -24959,7 +24959,7 @@
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B754" t="s">
         <v>169</v>
@@ -24991,7 +24991,7 @@
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B755" t="s">
         <v>169</v>
@@ -25023,7 +25023,7 @@
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B756" t="s">
         <v>169</v>
@@ -25055,7 +25055,7 @@
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B757" t="s">
         <v>170</v>
@@ -25087,7 +25087,7 @@
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B758" t="s">
         <v>170</v>
@@ -25119,7 +25119,7 @@
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B759" t="s">
         <v>170</v>
@@ -25151,7 +25151,7 @@
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B760" t="s">
         <v>170</v>
@@ -25183,7 +25183,7 @@
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>170</v>
@@ -25215,7 +25215,7 @@
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B762" t="s">
         <v>171</v>
@@ -25247,7 +25247,7 @@
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B763" t="s">
         <v>171</v>
@@ -25279,7 +25279,7 @@
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B764" t="s">
         <v>171</v>
@@ -25311,7 +25311,7 @@
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B765" t="s">
         <v>171</v>
@@ -25343,7 +25343,7 @@
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B766" t="s">
         <v>171</v>
@@ -25375,7 +25375,7 @@
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B767" t="s">
         <v>172</v>
@@ -25401,7 +25401,7 @@
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B768" t="s">
         <v>172</v>
@@ -25427,7 +25427,7 @@
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B769" t="s">
         <v>172</v>
@@ -25459,7 +25459,7 @@
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B770" t="s">
         <v>172</v>
@@ -25491,7 +25491,7 @@
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B771" t="s">
         <v>172</v>
@@ -25523,7 +25523,7 @@
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B772" t="s">
         <v>173</v>
@@ -25555,7 +25555,7 @@
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B773" t="s">
         <v>173</v>
@@ -25587,7 +25587,7 @@
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B774" t="s">
         <v>173</v>
@@ -25619,7 +25619,7 @@
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B775" t="s">
         <v>173</v>
@@ -25651,7 +25651,7 @@
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B776" t="s">
         <v>173</v>
@@ -25683,7 +25683,7 @@
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B777" t="s">
         <v>174</v>
@@ -25715,7 +25715,7 @@
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B778" t="s">
         <v>174</v>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B779" t="s">
         <v>174</v>
@@ -25779,7 +25779,7 @@
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B780" t="s">
         <v>174</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B781" t="s">
         <v>174</v>
